--- a/docs/OutpatientClinic.xlsx
+++ b/docs/OutpatientClinic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="402">
   <si>
     <t>Outpatient Clinic</t>
   </si>
@@ -41,1117 +41,1186 @@
     <t>Insurance</t>
   </si>
   <si>
-    <t>2016-08-16</t>
-  </si>
-  <si>
-    <t>JAYDEN NJAGI -</t>
+    <t>2020-10-28</t>
+  </si>
+  <si>
+    <t>Lavania Fridah   Samba</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>1985-07-01</t>
+  </si>
+  <si>
+    <t>CCC ST JOSEPH SHELTER OF HOPE</t>
+  </si>
+  <si>
+    <t>2020-10-27</t>
+  </si>
+  <si>
+    <t>Emmanuel Mwakio 0</t>
   </si>
   <si>
     <t>m</t>
   </si>
   <si>
-    <t>2016-07-12</t>
-  </si>
-  <si>
-    <t>5763/16</t>
+    <t>2014-07-01</t>
+  </si>
+  <si>
+    <t>NHIF DEBTOR  ACCOUNT</t>
+  </si>
+  <si>
+    <t>Mohammed Amin Abdi</t>
+  </si>
+  <si>
+    <t>2019-01-26</t>
   </si>
   <si>
     <t>CASH PAYMENT</t>
   </si>
   <si>
-    <t>2016-08-18</t>
-  </si>
-  <si>
-    <t>JECINTA WAKERA -</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>1935-07-01</t>
-  </si>
-  <si>
-    <t>5808/16</t>
-  </si>
-  <si>
-    <t>2016-08-17</t>
-  </si>
-  <si>
-    <t>ZACK KARANJAH -</t>
-  </si>
-  <si>
-    <t>1970-04-03</t>
-  </si>
-  <si>
-    <t>5750/16</t>
-  </si>
-  <si>
-    <t>FRANK MUCHIRI -</t>
-  </si>
-  <si>
-    <t>2016-02-15</t>
-  </si>
-  <si>
-    <t>hadija KARIMI -</t>
+    <t>Hamdi Ibrahim Abdirahman</t>
+  </si>
+  <si>
+    <t>1994-01-07</t>
+  </si>
+  <si>
+    <t>40127/20</t>
+  </si>
+  <si>
+    <t>Rehema Haroa Abdullah</t>
+  </si>
+  <si>
+    <t>1993-07-01</t>
+  </si>
+  <si>
+    <t>Elizabeth Kara Abo</t>
+  </si>
+  <si>
+    <t>2019-04-30</t>
+  </si>
+  <si>
+    <t>31787/19</t>
+  </si>
+  <si>
+    <t>Lukas Adongo Achola</t>
+  </si>
+  <si>
+    <t>1976-01-07</t>
+  </si>
+  <si>
+    <t>40121/20</t>
+  </si>
+  <si>
+    <t>Abdinasir Ibrahim Adow</t>
+  </si>
+  <si>
+    <t>1987-01-07</t>
+  </si>
+  <si>
+    <t>40126/20</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>Agnes Mwandembo Adoyo</t>
+  </si>
+  <si>
+    <t>1976-07-01</t>
+  </si>
+  <si>
+    <t>Abdulkadir Njai Ali</t>
+  </si>
+  <si>
+    <t>2017-07-01</t>
+  </si>
+  <si>
+    <t>37755/20</t>
+  </si>
+  <si>
+    <t>Ilham Makumbo Ali</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>37756/20</t>
+  </si>
+  <si>
+    <t>Benjamin Muli Andrew</t>
+  </si>
+  <si>
+    <t>1979-07-01</t>
+  </si>
+  <si>
+    <t>KENYA WILDLIFE SERVICE</t>
+  </si>
+  <si>
+    <t>Spencer Curtis Barasa</t>
+  </si>
+  <si>
+    <t>2019-01-07</t>
+  </si>
+  <si>
+    <t>40133/20</t>
+  </si>
+  <si>
+    <t>Gabriel Elina Boli</t>
+  </si>
+  <si>
+    <t>1992-01-07</t>
+  </si>
+  <si>
+    <t>40120/20</t>
+  </si>
+  <si>
+    <t>Maria Nyambura Chege</t>
+  </si>
+  <si>
+    <t>1992-07-01</t>
+  </si>
+  <si>
+    <t>Emmanuel James Chele</t>
+  </si>
+  <si>
+    <t>1996-07-01</t>
+  </si>
+  <si>
+    <t>ST. JOSEPH SHELTER OF HOPE</t>
+  </si>
+  <si>
+    <t>Gladys Makombo Chenga</t>
+  </si>
+  <si>
+    <t>1982-01-19</t>
+  </si>
+  <si>
+    <t>Emmy Eucabeth cherono</t>
+  </si>
+  <si>
+    <t>1991-01-07</t>
+  </si>
+  <si>
+    <t>Elias Mutuku David</t>
+  </si>
+  <si>
+    <t>2019-04-22</t>
+  </si>
+  <si>
+    <t>31608/19</t>
+  </si>
+  <si>
+    <t>John Lokale Ekali</t>
+  </si>
+  <si>
+    <t>1953-07-01</t>
+  </si>
+  <si>
+    <t>Daniel Ikumu Elijah</t>
+  </si>
+  <si>
+    <t>1990-07-01</t>
+  </si>
+  <si>
+    <t>Evelyne Wambua Esendi</t>
+  </si>
+  <si>
+    <t>1989-01-07</t>
+  </si>
+  <si>
+    <t>Emmanuel Karobia Gathogo</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>37984/20</t>
+  </si>
+  <si>
+    <t>Esther Mbeca Gathogo</t>
+  </si>
+  <si>
+    <t>1982-03-27</t>
+  </si>
+  <si>
+    <t>Roselyne Wali George</t>
+  </si>
+  <si>
+    <t>1984-07-01</t>
+  </si>
+  <si>
+    <t>Gladys Kinyasi Gomo</t>
+  </si>
+  <si>
+    <t>1967-07-01</t>
+  </si>
+  <si>
+    <t>Tumaini Kibirisho Grenson</t>
+  </si>
+  <si>
+    <t>2020-04-24</t>
+  </si>
+  <si>
+    <t>38029/20</t>
+  </si>
+  <si>
+    <t>Alexander Oronje Haggay</t>
+  </si>
+  <si>
+    <t>ST JOSEPH SHELTER OF HOPE CHAK CDC</t>
+  </si>
+  <si>
+    <t>Priscillah Mwamburi Hezron</t>
+  </si>
+  <si>
+    <t>1948-07-01</t>
+  </si>
+  <si>
+    <t>40132/20</t>
+  </si>
+  <si>
+    <t>Mohammed Shukri Isak</t>
+  </si>
+  <si>
+    <t>1994-07-01</t>
+  </si>
+  <si>
+    <t>Nancy Waithera Kamau</t>
+  </si>
+  <si>
+    <t>2014-04-00</t>
+  </si>
+  <si>
+    <t>Pricilah Syombua Kamunzu</t>
+  </si>
+  <si>
+    <t>1991-07-01</t>
+  </si>
+  <si>
+    <t>Raphaela Wachia Katana</t>
+  </si>
+  <si>
+    <t>2013-07-01</t>
+  </si>
+  <si>
+    <t>Hassan Mwiti Kea</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>Fanuel Muoki Kiamba</t>
+  </si>
+  <si>
+    <t>2018-07-01</t>
+  </si>
+  <si>
+    <t>Jefferson Maloti Kibirisho</t>
+  </si>
+  <si>
+    <t>Rogansia Kijala Kijala</t>
+  </si>
+  <si>
+    <t>2000-01-07</t>
+  </si>
+  <si>
+    <t>40158/20</t>
+  </si>
+  <si>
+    <t>Brenda Kalekye Kikungu</t>
+  </si>
+  <si>
+    <t>2003-07-01</t>
+  </si>
+  <si>
+    <t>24532/18</t>
+  </si>
+  <si>
+    <t>Mary Machocho Kilinda</t>
+  </si>
+  <si>
+    <t>1960-07-01</t>
+  </si>
+  <si>
+    <t>Danson Kimuyu Kinyili</t>
+  </si>
+  <si>
+    <t>38832/20</t>
+  </si>
+  <si>
+    <t>Kelvin Kiptoo Kiptoo</t>
+  </si>
+  <si>
+    <t>1995-07-01</t>
+  </si>
+  <si>
+    <t>38747/20</t>
+  </si>
+  <si>
+    <t>Cythia Cherono Kirui</t>
+  </si>
+  <si>
+    <t>1998-01-07</t>
+  </si>
+  <si>
+    <t>Jeremiah Kipchoge Kiswa</t>
+  </si>
+  <si>
+    <t>2020-08-16</t>
+  </si>
+  <si>
+    <t>39229/20</t>
+  </si>
+  <si>
+    <t>Philisia Wachia Kiteto</t>
+  </si>
+  <si>
+    <t>2000-07-01</t>
+  </si>
+  <si>
+    <t>Hendrick Mwadime Kituku</t>
+  </si>
+  <si>
+    <t>1950-07-01</t>
+  </si>
+  <si>
+    <t>Catherine Nduku Kivutha</t>
+  </si>
+  <si>
+    <t>1973-07-01</t>
+  </si>
+  <si>
+    <t>9385/15</t>
+  </si>
+  <si>
+    <t>Donald Njuguna Konye</t>
+  </si>
+  <si>
+    <t>2010-11-13</t>
+  </si>
+  <si>
+    <t>Chrispin Onyango Koyugi</t>
+  </si>
+  <si>
+    <t>2001-07-01</t>
+  </si>
+  <si>
+    <t>39038/20</t>
+  </si>
+  <si>
+    <t>Gordon Boyton Koyugi</t>
+  </si>
+  <si>
+    <t>1965-07-01</t>
+  </si>
+  <si>
+    <t>Valentine Kuwona Koyugi</t>
+  </si>
+  <si>
+    <t>2011-07-01</t>
+  </si>
+  <si>
+    <t>Gresandos Sifuna Kulova</t>
+  </si>
+  <si>
+    <t>40119/20</t>
+  </si>
+  <si>
+    <t>Penuel Faraja Kyalo</t>
+  </si>
+  <si>
+    <t>2010-07-01</t>
+  </si>
+  <si>
+    <t>33205/19</t>
+  </si>
+  <si>
+    <t>Mwazuna Mwashighadi Lawrence</t>
+  </si>
+  <si>
+    <t>1945-07-01</t>
+  </si>
+  <si>
+    <t>James Baraka Lusamamba</t>
+  </si>
+  <si>
+    <t>40122/20</t>
+  </si>
+  <si>
+    <t>Sr. Genovefa Ngowia Maashao</t>
+  </si>
+  <si>
+    <t>1949-07-01</t>
+  </si>
+  <si>
+    <t>Jefferson Mwakinambo Madedo</t>
+  </si>
+  <si>
+    <t>1975-07-01</t>
+  </si>
+  <si>
+    <t>Matilda Mghoi Maghanga</t>
+  </si>
+  <si>
+    <t>1987-02-25</t>
+  </si>
+  <si>
+    <t>Elizabeth Tuzo Maghanga</t>
+  </si>
+  <si>
+    <t>1993-01-07</t>
+  </si>
+  <si>
+    <t>40142/20</t>
+  </si>
+  <si>
+    <t>Eunice Mwadime Maghema</t>
+  </si>
+  <si>
+    <t>1958-07-01</t>
+  </si>
+  <si>
+    <t>Clemence  Wanjala Maghenda</t>
+  </si>
+  <si>
+    <t>Titus Musyoka Maluki</t>
   </si>
   <si>
     <t>1983-07-01</t>
   </si>
   <si>
-    <t>5796/16</t>
-  </si>
-  <si>
-    <t>CALLEN NJERI -</t>
+    <t>Luciana Wanjala Mambo</t>
+  </si>
+  <si>
+    <t>2015-01-07</t>
+  </si>
+  <si>
+    <t>40160/20</t>
+  </si>
+  <si>
+    <t>Scola Chao Mashaka</t>
+  </si>
+  <si>
+    <t>1986-01-07</t>
+  </si>
+  <si>
+    <t>Mary Mutheu Masila</t>
+  </si>
+  <si>
+    <t>1998-07-01</t>
+  </si>
+  <si>
+    <t>Oliver Solomon Mazola</t>
+  </si>
+  <si>
+    <t>1993-10-27</t>
+  </si>
+  <si>
+    <t>40135/20</t>
+  </si>
+  <si>
+    <t>Makau Mbathi Mbathi</t>
+  </si>
+  <si>
+    <t>1944-07-01</t>
+  </si>
+  <si>
+    <t>Leah Nyawira Mbugua</t>
+  </si>
+  <si>
+    <t>1997-01-07</t>
+  </si>
+  <si>
+    <t>Angel Maina Mburu</t>
+  </si>
+  <si>
+    <t>2007-04-13</t>
+  </si>
+  <si>
+    <t>39580/20</t>
+  </si>
+  <si>
+    <t>Julia Kilola Mbwangi</t>
+  </si>
+  <si>
+    <t>1969-07-01</t>
+  </si>
+  <si>
+    <t>Nicholas Mwasaru Mchana</t>
+  </si>
+  <si>
+    <t>1970-07-01</t>
+  </si>
+  <si>
+    <t>Defence Mwakesho Meso</t>
+  </si>
+  <si>
+    <t>1968-01-07</t>
+  </si>
+  <si>
+    <t>Holiness Sau Mghendi</t>
+  </si>
+  <si>
+    <t>Emily Mghoi Mghoi</t>
+  </si>
+  <si>
+    <t>1988-05-09</t>
+  </si>
+  <si>
+    <t>Joseph Ogendi Michieka</t>
+  </si>
+  <si>
+    <t>1966-07-01</t>
+  </si>
+  <si>
+    <t>Ivan Junior Mkati</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>37685/20</t>
+  </si>
+  <si>
+    <t>Esther Mkamburi Mlimailongo</t>
+  </si>
+  <si>
+    <t>Rose Mbori Mlolwa</t>
+  </si>
+  <si>
+    <t>1978-07-01</t>
+  </si>
+  <si>
+    <t>Alfred Mwaengo Mnjama</t>
+  </si>
+  <si>
+    <t>Grace Wachia Mnyambo</t>
+  </si>
+  <si>
+    <t>1952-01-07</t>
+  </si>
+  <si>
+    <t>Maulid Haribae Morowa</t>
+  </si>
+  <si>
+    <t>1989-01-01</t>
+  </si>
+  <si>
+    <t>Peter Kariuki Muiruri</t>
+  </si>
+  <si>
+    <t>George Mwaura Muiruri</t>
+  </si>
+  <si>
+    <t>2018-11-05</t>
+  </si>
+  <si>
+    <t>40141/20</t>
+  </si>
+  <si>
+    <t>Elizabeth Mueni Mulwa</t>
+  </si>
+  <si>
+    <t>1997-04-05</t>
+  </si>
+  <si>
+    <t>Madge Genevieve Murambi</t>
+  </si>
+  <si>
+    <t>2019-10-06</t>
+  </si>
+  <si>
+    <t>Edward  Benedict Muriithi</t>
+  </si>
+  <si>
+    <t>2020-08-02</t>
+  </si>
+  <si>
+    <t>39075/20</t>
+  </si>
+  <si>
+    <t>Miriam Nzisa Musau</t>
+  </si>
+  <si>
+    <t>1980-10-20</t>
+  </si>
+  <si>
+    <t>Caroline Mumbe Musyoka</t>
+  </si>
+  <si>
+    <t>1983-02-12</t>
+  </si>
+  <si>
+    <t>Sarah Mutinda Mutinda</t>
+  </si>
+  <si>
+    <t>2007-01-07</t>
+  </si>
+  <si>
+    <t>39428/20</t>
+  </si>
+  <si>
+    <t>Rebecca Mutheu Mutuku</t>
+  </si>
+  <si>
+    <t>2018-10-25</t>
+  </si>
+  <si>
+    <t>Ibrahim Mwachoka Mwachoka</t>
+  </si>
+  <si>
+    <t>40159/20</t>
+  </si>
+  <si>
+    <t>James Mwacharo Mwadeghu</t>
+  </si>
+  <si>
+    <t>1977-02-02</t>
+  </si>
+  <si>
+    <t>Dancun Chiwira Mwadime</t>
+  </si>
+  <si>
+    <t>1994-09-27</t>
+  </si>
+  <si>
+    <t>39226/20</t>
+  </si>
+  <si>
+    <t>Daniel Kipeka Mwadime</t>
+  </si>
+  <si>
+    <t>1980-01-07</t>
+  </si>
+  <si>
+    <t>Bertina Saru Mwadime</t>
+  </si>
+  <si>
+    <t>1982-11-28</t>
+  </si>
+  <si>
+    <t>Friedrick Mghongo Mwadulu</t>
+  </si>
+  <si>
+    <t>1988-07-01</t>
+  </si>
+  <si>
+    <t>Grace Ngure Mwailango</t>
+  </si>
+  <si>
+    <t>1951-07-01</t>
+  </si>
+  <si>
+    <t>Dotty goi Wacheghu Mwailemi</t>
+  </si>
+  <si>
+    <t>2011-01-07</t>
+  </si>
+  <si>
+    <t>40131/20</t>
+  </si>
+  <si>
+    <t>Winnie Seriana Mwakale</t>
+  </si>
+  <si>
+    <t>14560/16</t>
+  </si>
+  <si>
+    <t>Peter Konde Mwakera</t>
+  </si>
+  <si>
+    <t>1962-07-01</t>
+  </si>
+  <si>
+    <t>Fenny Abigael Mwakima</t>
+  </si>
+  <si>
+    <t>1964-07-01</t>
+  </si>
+  <si>
+    <t>Lawrence Mwakio Mwakio</t>
+  </si>
+  <si>
+    <t>2016-01-07</t>
+  </si>
+  <si>
+    <t>40143/20</t>
+  </si>
+  <si>
+    <t>Jenta Marura Mwakireti</t>
+  </si>
+  <si>
+    <t>1982-01-07</t>
+  </si>
+  <si>
+    <t>Henrietta Marura Mwakughu</t>
+  </si>
+  <si>
+    <t>1989-07-10</t>
+  </si>
+  <si>
+    <t>Dina Shighadi Mwalagha</t>
+  </si>
+  <si>
+    <t>14328/16</t>
+  </si>
+  <si>
+    <t>Lina Wuseri Mwaliko</t>
+  </si>
+  <si>
+    <t>1992-10-07</t>
+  </si>
+  <si>
+    <t>Angie Kulola Mwalimo</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>38411/20</t>
+  </si>
+  <si>
+    <t>John Mlekenyi Mwalukuku</t>
+  </si>
+  <si>
+    <t>Edwin Alibai Mwambanga</t>
+  </si>
+  <si>
+    <t>2008-01-07</t>
+  </si>
+  <si>
+    <t>Catherine Wanyika Mwamboko</t>
+  </si>
+  <si>
+    <t>30526/19</t>
+  </si>
+  <si>
+    <t>Hanginson Maganga Mwamela</t>
+  </si>
+  <si>
+    <t>1943-07-01</t>
+  </si>
+  <si>
+    <t>Irine Chao Mwamengi</t>
+  </si>
+  <si>
+    <t>Velentina Mwamengi Mwamengi</t>
+  </si>
+  <si>
+    <t>19965/17</t>
+  </si>
+  <si>
+    <t>Nicodemus Mwachugha Mwamsindu</t>
+  </si>
+  <si>
+    <t>40134/20</t>
+  </si>
+  <si>
+    <t>Triza Mnyache Mwandawiro</t>
+  </si>
+  <si>
+    <t>2003-01-07</t>
+  </si>
+  <si>
+    <t>40123/20</t>
+  </si>
+  <si>
+    <t>Duncan Muema Mwangangi</t>
+  </si>
+  <si>
+    <t>Rozinah Zighe Mwangemi</t>
+  </si>
+  <si>
+    <t>1997-07-01</t>
+  </si>
+  <si>
+    <t>38700/20</t>
+  </si>
+  <si>
+    <t>Emily Mbichi Mwangi</t>
+  </si>
+  <si>
+    <t>Constance Thelathini Mwangwale</t>
+  </si>
+  <si>
+    <t>Henry Kubo Mwanjala</t>
+  </si>
+  <si>
+    <t>Philipina Chao Mwanjumwa</t>
+  </si>
+  <si>
+    <t>1929-07-01</t>
+  </si>
+  <si>
+    <t>Hebron Mgalu Mwanjumwa</t>
+  </si>
+  <si>
+    <t>1946-07-01</t>
+  </si>
+  <si>
+    <t>Stanley Mwanyika Mwanyika</t>
+  </si>
+  <si>
+    <t>1933-01-07</t>
+  </si>
+  <si>
+    <t>40144/20</t>
+  </si>
+  <si>
+    <t>Angel Juliet Mwanyiru</t>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+  </si>
+  <si>
+    <t>40130/20</t>
+  </si>
+  <si>
+    <t>Rodrigo Wanyigha Mwarenge</t>
+  </si>
+  <si>
+    <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>38909/20</t>
+  </si>
+  <si>
+    <t>Francis Mwasi Mwasagua</t>
+  </si>
+  <si>
+    <t>2010-07-15</t>
+  </si>
+  <si>
+    <t>Violet Majala Mwasaru</t>
+  </si>
+  <si>
+    <t>24600/18</t>
+  </si>
+  <si>
+    <t>Gibran Iguja Mwasenge</t>
+  </si>
+  <si>
+    <t>1974-07-01</t>
+  </si>
+  <si>
+    <t>Elias Jeofrey mwashamba</t>
+  </si>
+  <si>
+    <t>1947-07-01</t>
+  </si>
+  <si>
+    <t>33184/19</t>
+  </si>
+  <si>
+    <t>Jeniffer Mshai Mwashighadi</t>
+  </si>
+  <si>
+    <t>25277/18</t>
+  </si>
+  <si>
+    <t>Christina Mawondo Mwasi</t>
+  </si>
+  <si>
+    <t>1979-12-06</t>
+  </si>
+  <si>
+    <t>Hermaton Mwamburi Mwasi</t>
+  </si>
+  <si>
+    <t>Festus Mwadime Mwatee</t>
+  </si>
+  <si>
+    <t>1964-04-16</t>
+  </si>
+  <si>
+    <t>Salma Wawuda Mwatibo</t>
+  </si>
+  <si>
+    <t>1971-07-01</t>
+  </si>
+  <si>
+    <t>Victor Richard Mwavala</t>
+  </si>
+  <si>
+    <t>1938-01-07</t>
+  </si>
+  <si>
+    <t>Grace Mwae Mwawana</t>
+  </si>
+  <si>
+    <t>Fanuel Mwamsidu MWawana</t>
+  </si>
+  <si>
+    <t>1957-07-01</t>
+  </si>
+  <si>
+    <t>36408/20</t>
+  </si>
+  <si>
+    <t>Elikana Mwasicho Mwawaza</t>
+  </si>
+  <si>
+    <t>39903/20</t>
+  </si>
+  <si>
+    <t>Patrick Nguta Mwawughanga</t>
+  </si>
+  <si>
+    <t>Fredrick Ngige Mwirore</t>
+  </si>
+  <si>
+    <t>Mwambela Ngoda Ngoda</t>
+  </si>
+  <si>
+    <t>David Bombo Nguli</t>
+  </si>
+  <si>
+    <t>36639/20</t>
+  </si>
+  <si>
+    <t>Richard Muli Ngulle</t>
+  </si>
+  <si>
+    <t>1976-01-01</t>
+  </si>
+  <si>
+    <t>Hezron Mwangemi Nguru</t>
+  </si>
+  <si>
+    <t>1941-01-07</t>
+  </si>
+  <si>
+    <t>Magret Muthoni Njeru</t>
+  </si>
+  <si>
+    <t>35374/19</t>
+  </si>
+  <si>
+    <t>Caroline Wairimu Njoki</t>
+  </si>
+  <si>
+    <t>1985-10-06</t>
+  </si>
+  <si>
+    <t>40136/20</t>
+  </si>
+  <si>
+    <t>Ruth Kerubo Nyamweya</t>
+  </si>
+  <si>
+    <t>2003-11-10</t>
+  </si>
+  <si>
+    <t>35196/19</t>
+  </si>
+  <si>
+    <t>Judith Mghoi Nyange</t>
+  </si>
+  <si>
+    <t>Dzonewa Nyawa Nyondo</t>
+  </si>
+  <si>
+    <t>1989-07-01</t>
+  </si>
+  <si>
+    <t>30176/19</t>
+  </si>
+  <si>
+    <t>Mercy Mbura Nzovah</t>
+  </si>
+  <si>
+    <t>1995-01-07</t>
+  </si>
+  <si>
+    <t>40125/20</t>
+  </si>
+  <si>
+    <t>Eunice Mwae Ogola</t>
+  </si>
+  <si>
+    <t>1986-07-01</t>
+  </si>
+  <si>
+    <t>Naomi Atieno Okore</t>
+  </si>
+  <si>
+    <t>Hadia Rehema Omar</t>
+  </si>
+  <si>
+    <t>Elvis Raphael Omkadia</t>
+  </si>
+  <si>
+    <t>38951/20</t>
+  </si>
+  <si>
+    <t>Denis Onsombi Onsombi</t>
+  </si>
+  <si>
+    <t>34565/19</t>
+  </si>
+  <si>
+    <t>BRITISH AMERICAN INSURANCE</t>
+  </si>
+  <si>
+    <t>Ryan Amwaka Ouma</t>
+  </si>
+  <si>
+    <t>2017-08-08</t>
+  </si>
+  <si>
+    <t>Lilian Akinyi Reru</t>
+  </si>
+  <si>
+    <t>Victory  Mwasaru Righa</t>
+  </si>
+  <si>
+    <t>28378/18</t>
+  </si>
+  <si>
+    <t>NHIF CIVIL SERVANTS AC</t>
+  </si>
+  <si>
+    <t>Raymond Mwalandi Righa</t>
+  </si>
+  <si>
+    <t>33308/19</t>
+  </si>
+  <si>
+    <t>Beth Wanjiru Ritho</t>
+  </si>
+  <si>
+    <t>1963-07-01</t>
+  </si>
+  <si>
+    <t>Genevive Chepchumba Sikolia</t>
+  </si>
+  <si>
+    <t>1985-04-14</t>
+  </si>
+  <si>
+    <t>Wilberforce Busu Swekenyi</t>
+  </si>
+  <si>
+    <t>Joseph Chebule Tsumah</t>
+  </si>
+  <si>
+    <t>2015-07-01</t>
+  </si>
+  <si>
+    <t>39169/20</t>
+  </si>
+  <si>
+    <t>Tuja Mghanga Tuja</t>
+  </si>
+  <si>
+    <t>Kephar Ghomo Vita</t>
+  </si>
+  <si>
+    <t>Gladys Julius Wache</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>Joshua Mwazighe Wachenje</t>
   </si>
   <si>
     <t>2008-07-01</t>
   </si>
   <si>
-    <t>NHIF DEBTOR ACCOUNT</t>
-  </si>
-  <si>
-    <t>RUKENYA MURIGU -</t>
-  </si>
-  <si>
-    <t>1926-07-01</t>
-  </si>
-  <si>
-    <t>NHIF OUTPATIENT</t>
-  </si>
-  <si>
-    <t>JASMIN JUDY NYAWIRA -</t>
-  </si>
-  <si>
-    <t>5762/16</t>
-  </si>
-  <si>
-    <t>CHOMBA GICHOBI -</t>
-  </si>
-  <si>
-    <t>1989-07-01</t>
-  </si>
-  <si>
-    <t>5765/16</t>
-  </si>
-  <si>
-    <t>JOSEPH GIKUNJU -</t>
-  </si>
-  <si>
-    <t>1952-07-01</t>
-  </si>
-  <si>
-    <t>2315/15</t>
-  </si>
-  <si>
-    <t>IAN  MURIITHI -</t>
-  </si>
-  <si>
-    <t>2016-01-11</t>
-  </si>
-  <si>
-    <t>JOEL MWANIKI CHOMBA</t>
-  </si>
-  <si>
-    <t>2015-07-14</t>
-  </si>
-  <si>
-    <t>1460/15</t>
-  </si>
-  <si>
-    <t>JOSEPH KARIUKI GACHERU</t>
-  </si>
-  <si>
-    <t>1963-07-01</t>
-  </si>
-  <si>
-    <t>VIRGINIAH WAMBUI GACHOKI</t>
-  </si>
-  <si>
-    <t>1978-07-01</t>
-  </si>
-  <si>
-    <t>STEPHEN WANJOHI GACHOKI</t>
-  </si>
-  <si>
-    <t>1953-07-01</t>
-  </si>
-  <si>
-    <t>ROSE WANGARI GAKONO</t>
-  </si>
-  <si>
-    <t>5804/16</t>
-  </si>
-  <si>
-    <t>FREDRICK KIMANI GAKURU</t>
+    <t>Michael Nyangala Wachenje</t>
+  </si>
+  <si>
+    <t>Francis Goya Wadu</t>
+  </si>
+  <si>
+    <t>Josephine Wakesho Wakesho</t>
+  </si>
+  <si>
+    <t>1955-07-01</t>
+  </si>
+  <si>
+    <t>9013/15</t>
+  </si>
+  <si>
+    <t>December Mdamu Wamaza</t>
+  </si>
+  <si>
+    <t>Stephen Kingoo Wambua</t>
+  </si>
+  <si>
+    <t>John Wandiri Wandiri</t>
+  </si>
+  <si>
+    <t>1965-01-07</t>
+  </si>
+  <si>
+    <t>40124/20</t>
+  </si>
+  <si>
+    <t>Niceta Kiteria Wangari</t>
   </si>
   <si>
     <t>1961-07-01</t>
   </si>
   <si>
-    <t>LOISE MUTHONI GATHEGU</t>
-  </si>
-  <si>
-    <t>1946-07-01</t>
-  </si>
-  <si>
-    <t>5748/16</t>
-  </si>
-  <si>
-    <t>NANCY KANINI gathuku</t>
-  </si>
-  <si>
-    <t>1966-08-25</t>
-  </si>
-  <si>
-    <t>K.P.L.C</t>
-  </si>
-  <si>
-    <t>IRENE WAINOI GICHERE</t>
-  </si>
-  <si>
-    <t>1966-07-01</t>
-  </si>
-  <si>
-    <t>DAVID NYAMU GICHERU</t>
-  </si>
-  <si>
-    <t>1977-07-01</t>
-  </si>
-  <si>
-    <t>XPLICO</t>
-  </si>
-  <si>
-    <t>MIRIAM WANJIRA GICHIRA</t>
-  </si>
-  <si>
-    <t>5749/16</t>
-  </si>
-  <si>
-    <t>CHARLES MWANGI GICHIRA</t>
-  </si>
-  <si>
-    <t>1980-07-01</t>
-  </si>
-  <si>
-    <t>5788/16</t>
-  </si>
-  <si>
-    <t>KEZIAH WANJIKU GICHOBI</t>
-  </si>
-  <si>
-    <t>1998-07-01</t>
-  </si>
-  <si>
-    <t>KENEDY MUCHIRI GICHOBI</t>
-  </si>
-  <si>
-    <t>1992-07-01</t>
-  </si>
-  <si>
-    <t>5782/16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRITAM CORPORATE </t>
-  </si>
-  <si>
-    <t>JUDY WANJIKU GICHOBI</t>
-  </si>
-  <si>
-    <t>5809/16</t>
-  </si>
-  <si>
-    <t>GLADYS WANJIRU GICHUKI</t>
-  </si>
-  <si>
-    <t>VICTOR RUGU GIKANGA</t>
-  </si>
-  <si>
-    <t>2014-07-01</t>
-  </si>
-  <si>
-    <t>2404/15</t>
-  </si>
-  <si>
-    <t>CHARITY GATHONI GIKUNJU</t>
-  </si>
-  <si>
-    <t>1929-07-01</t>
-  </si>
-  <si>
-    <t>JANET WANDIA GITARI</t>
-  </si>
-  <si>
-    <t>1950-07-01</t>
-  </si>
-  <si>
-    <t>2100/15</t>
-  </si>
-  <si>
-    <t>FRIDAH MUKIRI GITONGA</t>
-  </si>
-  <si>
-    <t>5785/16</t>
-  </si>
-  <si>
-    <t>MARGARET WANJIRA JAMES</t>
-  </si>
-  <si>
-    <t>1940-07-01</t>
-  </si>
-  <si>
-    <t>MARY WAMARWA KABEU</t>
-  </si>
-  <si>
-    <t>1934-07-01</t>
-  </si>
-  <si>
-    <t>BEATRICE WAITHIRA KAMUTU</t>
-  </si>
-  <si>
-    <t>1982-07-01</t>
-  </si>
-  <si>
-    <t>DAVID NYAGA KANYANGE</t>
-  </si>
-  <si>
-    <t>1959-07-01</t>
-  </si>
-  <si>
-    <t>BRITAM AFYA TELE</t>
-  </si>
-  <si>
-    <t>BENSON MURIITHI KARANGI</t>
-  </si>
-  <si>
-    <t>5366/16</t>
-  </si>
-  <si>
-    <t>MAUREEN WARUGURU KARANI</t>
-  </si>
-  <si>
-    <t>1999-07-01</t>
-  </si>
-  <si>
-    <t>EUNICE  NGIMA KARIMI</t>
-  </si>
-  <si>
-    <t>1930-07-01</t>
-  </si>
-  <si>
-    <t>5786/16</t>
-  </si>
-  <si>
-    <t>EUNICE WAIRIMU KARIMI</t>
-  </si>
-  <si>
-    <t>1945-07-01</t>
-  </si>
-  <si>
-    <t>PATRICK CHOMBA KARIMI</t>
-  </si>
-  <si>
-    <t>2004-07-01</t>
-  </si>
-  <si>
-    <t>EMMANUEL MURIUKI KARIMI</t>
-  </si>
-  <si>
-    <t>2015-12-16</t>
-  </si>
-  <si>
-    <t>NIKASIO MURIITHI KARITU</t>
-  </si>
-  <si>
-    <t>1936-07-01</t>
-  </si>
-  <si>
-    <t>MERCY NYAMBURA KARIUKI</t>
-  </si>
-  <si>
-    <t>1976-07-01</t>
-  </si>
-  <si>
-    <t>5790/16</t>
-  </si>
-  <si>
-    <t>REUBEN MURIITHI KARIUKI</t>
+    <t>28636/18</t>
+  </si>
+  <si>
+    <t>Jones Mshoki Wangio</t>
+  </si>
+  <si>
+    <t>1974-01-07</t>
+  </si>
+  <si>
+    <t>Agnes Zainab Wanje</t>
+  </si>
+  <si>
+    <t>30569/19</t>
+  </si>
+  <si>
+    <t>Philip Tom Wathia</t>
+  </si>
+  <si>
+    <t>Ruth Wamboi Waweru</t>
+  </si>
+  <si>
+    <t>32610/19</t>
+  </si>
+  <si>
+    <t>Magret Ruphence Wawuda</t>
+  </si>
+  <si>
+    <t>Ernestina Wawuda Wawuda</t>
+  </si>
+  <si>
+    <t>1973-06-20</t>
+  </si>
+  <si>
+    <t>40128/20</t>
+  </si>
+  <si>
+    <t>Eddah Mwawughanga Wughanga</t>
   </si>
   <si>
     <t>1987-07-01</t>
   </si>
   <si>
-    <t>PATRICIA NYAGUTHII KARIUKI</t>
-  </si>
-  <si>
-    <t>2003-07-01</t>
-  </si>
-  <si>
-    <t>5770/16</t>
-  </si>
-  <si>
-    <t>ROSE WANGARI KAROKI</t>
-  </si>
-  <si>
-    <t>1969-07-01</t>
-  </si>
-  <si>
-    <t>DAVID MURIUKI KAROKO</t>
-  </si>
-  <si>
-    <t>5773/16</t>
-  </si>
-  <si>
-    <t>CHRISTINE NYAKIO KIAMA</t>
-  </si>
-  <si>
-    <t>2001-07-01</t>
-  </si>
-  <si>
-    <t>STAFF</t>
-  </si>
-  <si>
-    <t>FRANKLIN BACHIA KIAMA</t>
-  </si>
-  <si>
-    <t>2010-07-01</t>
-  </si>
-  <si>
-    <t>LEONARD KABUI KIBATA</t>
-  </si>
-  <si>
-    <t>1956-07-01</t>
-  </si>
-  <si>
-    <t>LUCY NYAWIRA KIBUCHI</t>
-  </si>
-  <si>
-    <t>1964-07-01</t>
-  </si>
-  <si>
-    <t>RITA WANJIRA KIHARA</t>
-  </si>
-  <si>
-    <t>2005-07-01</t>
-  </si>
-  <si>
-    <t>5780/16</t>
-  </si>
-  <si>
-    <t>SOLOMON MUSEO KILUNGE</t>
-  </si>
-  <si>
-    <t>1994-07-01</t>
-  </si>
-  <si>
-    <t>LYDIA MUKAMI KIMANI</t>
-  </si>
-  <si>
-    <t>1991-07-01</t>
-  </si>
-  <si>
-    <t>FELISTER WANJIRU KIMOTHO</t>
-  </si>
-  <si>
-    <t>1951-07-01</t>
-  </si>
-  <si>
-    <t>5807/16</t>
-  </si>
-  <si>
-    <t>STEPHEN MURIMI KIMOTHO</t>
-  </si>
-  <si>
-    <t>COLLINS MUNENE KINYUA</t>
-  </si>
-  <si>
-    <t>2006-07-01</t>
-  </si>
-  <si>
-    <t>3812/15</t>
-  </si>
-  <si>
-    <t>RUTH wairiuko KINYUA</t>
-  </si>
-  <si>
-    <t>CAROLINE KENDI KINYUA</t>
-  </si>
-  <si>
-    <t>1997-07-01</t>
-  </si>
-  <si>
-    <t>5771/16</t>
-  </si>
-  <si>
-    <t>LENARTO KIHARA KINYUA</t>
-  </si>
-  <si>
-    <t>2016-03-28</t>
-  </si>
-  <si>
-    <t>EUNICE NJOKI KINYUA</t>
-  </si>
-  <si>
-    <t>5806/16</t>
-  </si>
-  <si>
-    <t>ELIZABETH MBOCI KINYUA</t>
-  </si>
-  <si>
-    <t>2876/15</t>
-  </si>
-  <si>
-    <t>FRESHIA WAITHERA KINYUA</t>
-  </si>
-  <si>
-    <t>1993-07-01</t>
-  </si>
-  <si>
-    <t>5774/16</t>
-  </si>
-  <si>
-    <t>PETER GACHOKI KINYUA</t>
-  </si>
-  <si>
-    <t>5761/16</t>
-  </si>
-  <si>
-    <t>DANICE WANJIKU KINYUA</t>
-  </si>
-  <si>
-    <t>2013-07-01</t>
-  </si>
-  <si>
-    <t>1324/15</t>
-  </si>
-  <si>
-    <t>FAITH NYAKIO KINYUA</t>
-  </si>
-  <si>
-    <t>155/13</t>
-  </si>
-  <si>
-    <t>ACK DIOCESE OF KIRINYAGA</t>
-  </si>
-  <si>
-    <t>SAMANTHA NJERI KIUGI</t>
-  </si>
-  <si>
-    <t>2015-12-20</t>
-  </si>
-  <si>
-    <t>JUBILEE</t>
-  </si>
-  <si>
-    <t>josphine wanjiru kiura</t>
-  </si>
-  <si>
-    <t>1928-07-01</t>
-  </si>
-  <si>
-    <t>ANN MUKAMI KURUGA</t>
-  </si>
-  <si>
-    <t>JULIA WANJA MAINA</t>
-  </si>
-  <si>
-    <t>1981-07-01</t>
-  </si>
-  <si>
-    <t>5776/16</t>
-  </si>
-  <si>
-    <t>EMMAH WANGECHI MAINA</t>
-  </si>
-  <si>
-    <t>VIVIAN MUTHONI MAINA</t>
-  </si>
-  <si>
-    <t>2015-07-01</t>
-  </si>
-  <si>
-    <t>FAITH WAMBERE MARIARA</t>
-  </si>
-  <si>
-    <t>1948-07-01</t>
-  </si>
-  <si>
-    <t>CAROLINE NTHENYA MBITHI</t>
-  </si>
-  <si>
-    <t>4703/16</t>
-  </si>
-  <si>
-    <t>STANLEY MAINA MBOGO</t>
-  </si>
-  <si>
-    <t>1986-07-01</t>
-  </si>
-  <si>
-    <t>MAXWELL KARIUKI MBORA</t>
-  </si>
-  <si>
-    <t>2012-07-01</t>
-  </si>
-  <si>
-    <t>3582/15</t>
-  </si>
-  <si>
-    <t>PRISCILLAR WAMBUI MBUI</t>
-  </si>
-  <si>
-    <t>james murage MBURIA</t>
-  </si>
-  <si>
-    <t>1958-08-19</t>
-  </si>
-  <si>
-    <t>SUSAN WAMBUI MITHAMO</t>
-  </si>
-  <si>
-    <t>5803/16</t>
-  </si>
-  <si>
-    <t>NANCY WANJIRA MITHAMO</t>
-  </si>
-  <si>
-    <t>1957-07-01</t>
-  </si>
-  <si>
-    <t>JOSEPH MWANGI MITHAMO</t>
-  </si>
-  <si>
-    <t>1944-07-01</t>
-  </si>
-  <si>
-    <t>alvis mberia muchira</t>
-  </si>
-  <si>
-    <t>2016-07-02</t>
-  </si>
-  <si>
-    <t>EPAPHARUS MURIMI MUCHIRI</t>
-  </si>
-  <si>
-    <t>BEATRICE MUTHONI MUGO</t>
-  </si>
-  <si>
-    <t>EDAH WAWIRA MUGO</t>
-  </si>
-  <si>
-    <t>HARUN NJAGI MUGO</t>
-  </si>
-  <si>
-    <t>1960-07-01</t>
-  </si>
-  <si>
-    <t>LOISE WARUGURU MUGOH</t>
-  </si>
-  <si>
-    <t>1937-07-01</t>
-  </si>
-  <si>
-    <t>JOSEPH NJUE MUIRURI</t>
-  </si>
-  <si>
-    <t>SOLOMON BARAKA MUIRURI</t>
-  </si>
-  <si>
-    <t>2016-03-04</t>
-  </si>
-  <si>
-    <t>JIM FAUSTIN GICHANGI MUMBI</t>
-  </si>
-  <si>
-    <t>ROSE WANGECHI MUNENE</t>
-  </si>
-  <si>
-    <t>1972-07-01</t>
-  </si>
-  <si>
-    <t>345/13</t>
-  </si>
-  <si>
-    <t>MOSES MURAGE MURAGARIA</t>
-  </si>
-  <si>
-    <t>1943-07-01</t>
-  </si>
-  <si>
-    <t>FRANCIS MURIUKI MURAGE</t>
-  </si>
-  <si>
-    <t>MARGARET NYAGUTHII MURAGURI</t>
-  </si>
-  <si>
-    <t>5791/16</t>
-  </si>
-  <si>
-    <t>EUNICE WANJUGU MURAGURI</t>
-  </si>
-  <si>
-    <t>5768/16</t>
-  </si>
-  <si>
-    <t>A.P.A INSURANCE</t>
-  </si>
-  <si>
-    <t>JANE KARIMI MURARIA</t>
-  </si>
-  <si>
-    <t>JEREMIAH NGARI MURIGI</t>
-  </si>
-  <si>
-    <t>nancy wangechi MURIITHI</t>
-  </si>
-  <si>
-    <t>JENNIFER WANGECHI MURIITHI</t>
-  </si>
-  <si>
-    <t>1925-07-01</t>
-  </si>
-  <si>
-    <t>MORRIS MURIMI MURIITHI</t>
-  </si>
-  <si>
-    <t>ANN WANJIRU MURIITHI</t>
-  </si>
-  <si>
-    <t>5365/16</t>
-  </si>
-  <si>
-    <t>ABIGAEL WAMBUI MURIITHI</t>
-  </si>
-  <si>
-    <t>JOHN MUTUGI MURIMI</t>
-  </si>
-  <si>
-    <t>2016-03-31</t>
-  </si>
-  <si>
-    <t>STEPHEN MURIUKI MURIMI</t>
-  </si>
-  <si>
-    <t>5799/16</t>
-  </si>
-  <si>
-    <t>DAVID KINYUA MURIMI</t>
-  </si>
-  <si>
-    <t>1970-07-01</t>
-  </si>
-  <si>
-    <t>5792/16</t>
-  </si>
-  <si>
-    <t>RICHARD MUTHII MURIUKI</t>
-  </si>
-  <si>
-    <t>1984-07-01</t>
-  </si>
-  <si>
-    <t>5795/16</t>
-  </si>
-  <si>
-    <t>MEGAN WANGUI MURUTHI</t>
-  </si>
-  <si>
-    <t>2013-01-15</t>
-  </si>
-  <si>
-    <t>DORRIS WANGUI MUTHIKE</t>
-  </si>
-  <si>
-    <t>3791/15</t>
-  </si>
-  <si>
-    <t>SUSAN WANJIRA MUTHIKE</t>
-  </si>
-  <si>
-    <t>SAMUEL GITHINJI MUTHIRU</t>
-  </si>
-  <si>
-    <t>BRITAM KINGA YA MKULIMA</t>
-  </si>
-  <si>
-    <t>CATHRINE NJERI MUTUGI</t>
-  </si>
-  <si>
-    <t>BRANDON MURIMI MUTUGI</t>
-  </si>
-  <si>
-    <t>2016-08-06</t>
-  </si>
-  <si>
-    <t>5769/16</t>
-  </si>
-  <si>
-    <t>MICHAEL MWANGI MWAI</t>
-  </si>
-  <si>
-    <t>1971-07-01</t>
-  </si>
-  <si>
-    <t>FAITH WANJIKU MWAI</t>
-  </si>
-  <si>
-    <t>1797/15</t>
-  </si>
-  <si>
-    <t>MARTHA MUTHONI MWAI</t>
-  </si>
-  <si>
-    <t>1988-07-01</t>
-  </si>
-  <si>
-    <t>811/15</t>
-  </si>
-  <si>
-    <t>ACK MT KENYA HOSPITAL</t>
-  </si>
-  <si>
-    <t>NICKSON MAINA MWANGI</t>
-  </si>
-  <si>
-    <t>2015-09-30</t>
-  </si>
-  <si>
-    <t>yvonne njeri mwangi</t>
-  </si>
-  <si>
-    <t>5800/16</t>
-  </si>
-  <si>
-    <t>CLARENCE GACHARA MWANGI</t>
-  </si>
-  <si>
-    <t>2015-12-03</t>
-  </si>
-  <si>
-    <t>4461/16</t>
-  </si>
-  <si>
-    <t>BEATRICE MUTHONI MWANGI</t>
-  </si>
-  <si>
-    <t>5787/16</t>
-  </si>
-  <si>
-    <t>LYDIAH KANINI MWANGI</t>
-  </si>
-  <si>
-    <t>1916-07-01</t>
-  </si>
-  <si>
-    <t>ANN WANGARI MWANGI</t>
-  </si>
-  <si>
-    <t>1979-07-01</t>
-  </si>
-  <si>
-    <t>5743/16</t>
-  </si>
-  <si>
-    <t>TIFFANY NYAMBURA MWANGI</t>
-  </si>
-  <si>
-    <t>2015-01-29</t>
-  </si>
-  <si>
-    <t>AON INSURANCE</t>
-  </si>
-  <si>
-    <t>EDITH KANINI MWANTHIKWA</t>
-  </si>
-  <si>
-    <t>4308/16</t>
-  </si>
-  <si>
-    <t>tevis ndungu mwathi</t>
-  </si>
-  <si>
-    <t>1999-08-10</t>
-  </si>
-  <si>
-    <t>UAP</t>
-  </si>
-  <si>
-    <t>joy KANANA n</t>
-  </si>
-  <si>
-    <t>1996-07-01</t>
-  </si>
-  <si>
-    <t>5798/16</t>
-  </si>
-  <si>
-    <t>JAMES GITARI NDAMBIRI</t>
-  </si>
-  <si>
-    <t>1962-07-01</t>
-  </si>
-  <si>
-    <t>AAR</t>
-  </si>
-  <si>
-    <t>STECY TABITHA NDANU</t>
-  </si>
-  <si>
-    <t>PETER machuki ndathi</t>
-  </si>
-  <si>
-    <t>eunice wagatwe ndiga</t>
-  </si>
-  <si>
-    <t>1949-07-01</t>
-  </si>
-  <si>
-    <t>JULIUS MUGA NDIMBO</t>
-  </si>
-  <si>
-    <t>5781/16</t>
-  </si>
-  <si>
-    <t>FAITH WAMBUI NDIRITU</t>
-  </si>
-  <si>
-    <t>1990-07-01</t>
-  </si>
-  <si>
-    <t>5802/16</t>
-  </si>
-  <si>
-    <t>LAURENCE MUCHANGI NDWIGA</t>
-  </si>
-  <si>
-    <t>LOISE MUTHONI NGARU</t>
-  </si>
-  <si>
-    <t>faith wambui ngugi</t>
-  </si>
-  <si>
-    <t>MERCY WAKIO NGURU</t>
-  </si>
-  <si>
-    <t>2015-05-01</t>
-  </si>
-  <si>
-    <t>732/15</t>
-  </si>
-  <si>
-    <t>ADS STAFF</t>
-  </si>
-  <si>
-    <t>JOSPHINE MUTHONI NGUYO</t>
-  </si>
-  <si>
-    <t>ADRIAN MWAI NJAGI</t>
-  </si>
-  <si>
-    <t>2891/15</t>
-  </si>
-  <si>
-    <t>NSSF</t>
-  </si>
-  <si>
-    <t>SERALILLY WAWIRA NJAGI</t>
-  </si>
-  <si>
-    <t>1974-07-01</t>
-  </si>
-  <si>
-    <t>PETER NGUNGI NJAGUARA</t>
-  </si>
-  <si>
-    <t>LUCIA WANGECHI NJANG`O</t>
-  </si>
-  <si>
-    <t>1941-07-01</t>
-  </si>
-  <si>
-    <t>5801/16</t>
-  </si>
-  <si>
-    <t>MARY MUTHONI NJAU</t>
-  </si>
-  <si>
-    <t>1975-07-01</t>
-  </si>
-  <si>
-    <t>IVY IGANDU NJERU</t>
-  </si>
-  <si>
-    <t>5772/16</t>
-  </si>
-  <si>
-    <t>DAVID MUNENE NJINE</t>
-  </si>
-  <si>
-    <t>SOPHIA  WATHIMU NJIRA</t>
-  </si>
-  <si>
-    <t>SARAH NJERI NJUE</t>
-  </si>
-  <si>
-    <t>GRACE MUTHONI NJUKI</t>
-  </si>
-  <si>
-    <t>1965-07-01</t>
-  </si>
-  <si>
-    <t>2707/15</t>
-  </si>
-  <si>
-    <t>CECILY WANDEGE NJURAITA</t>
-  </si>
-  <si>
-    <t>FRANCIS WAMBUGU NYAGA</t>
-  </si>
-  <si>
-    <t>1955-08-10</t>
-  </si>
-  <si>
-    <t>VIDESIO NDAMBIRI NYANGIRI</t>
-  </si>
-  <si>
-    <t>5777/16</t>
-  </si>
-  <si>
-    <t>BEATRICE MUTHONI NYOKABI</t>
-  </si>
-  <si>
-    <t>SHADRACK NYAGA OBED</t>
-  </si>
-  <si>
-    <t>5766/16</t>
-  </si>
-  <si>
-    <t>ALSEBA ACHIENG OKELLO</t>
-  </si>
-  <si>
-    <t>5794/16</t>
-  </si>
-  <si>
-    <t>FAIZAN OAKLEE OSAGI</t>
-  </si>
-  <si>
-    <t>2015-11-09</t>
-  </si>
-  <si>
-    <t>3233/15</t>
-  </si>
-  <si>
-    <t>STACY WAMERU OSANGO</t>
-  </si>
-  <si>
-    <t>2016-06-07</t>
-  </si>
-  <si>
-    <t>5760/16</t>
-  </si>
-  <si>
-    <t>ANANTA KALPESH PATEL</t>
-  </si>
-  <si>
-    <t>2015-03-02</t>
-  </si>
-  <si>
-    <t>4327/16</t>
-  </si>
-  <si>
-    <t>REVATI MAHARADI PATEL</t>
-  </si>
-  <si>
-    <t>1600/15</t>
-  </si>
-  <si>
-    <t>RASILLA PATEL RUPESH</t>
-  </si>
-  <si>
-    <t>571/15</t>
-  </si>
-  <si>
-    <t>BEATRICE NYAGUTHII RURI</t>
-  </si>
-  <si>
-    <t>TEST TEST TEST</t>
-  </si>
-  <si>
-    <t>12/13</t>
-  </si>
-  <si>
-    <t>ZACK  TEST TEST</t>
-  </si>
-  <si>
-    <t>John test test</t>
-  </si>
-  <si>
-    <t>492/15</t>
-  </si>
-  <si>
-    <t>YVONNE VALENTINA WANGARI WACHIRA</t>
-  </si>
-  <si>
-    <t>2016-05-12</t>
-  </si>
-  <si>
-    <t>JULIUS MITAARO WAMBU</t>
-  </si>
-  <si>
-    <t>MARY WARUI WAMBUGU</t>
-  </si>
-  <si>
-    <t>ROSE WAMBERE WAMWATI</t>
-  </si>
-  <si>
-    <t>NANCY MUTITU WAMWATI</t>
-  </si>
-  <si>
-    <t>1230/15</t>
-  </si>
-  <si>
-    <t>ROBINSON MUGO WANJIKU</t>
-  </si>
-  <si>
-    <t>2002-07-01</t>
-  </si>
-  <si>
-    <t>TESHNEY MUTHONI WANJIKU</t>
-  </si>
-  <si>
-    <t>2015-02-11</t>
-  </si>
-  <si>
-    <t>2778/15</t>
-  </si>
-  <si>
-    <t>CECILIA NJERI WANJOHI</t>
-  </si>
-  <si>
-    <t>ESTHER WAMBUI WANJOHI</t>
-  </si>
-  <si>
-    <t>1968-07-01</t>
-  </si>
-  <si>
-    <t>5767/16</t>
-  </si>
-  <si>
-    <t>JACKLINE WAKIO WANJOHI</t>
-  </si>
-  <si>
-    <t>PERIS WANJIKU WANJOHI</t>
-  </si>
-  <si>
-    <t>JULIUS WACHIRA WANNGECHI</t>
-  </si>
-  <si>
-    <t>2912/15</t>
-  </si>
-  <si>
-    <t>EDDY WILLIAMS  WASIKE</t>
-  </si>
-  <si>
-    <t>5778/16</t>
+    <t>Zainab mambori Zaitun</t>
+  </si>
+  <si>
+    <t>39315/20</t>
+  </si>
+  <si>
+    <t>Jane Mghoi Zenga</t>
+  </si>
+  <si>
+    <t>Pamela Zighe Zighe</t>
+  </si>
+  <si>
+    <t>40154/20</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1559,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1540,473 +1609,473 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>13166</v>
-      </c>
-      <c r="F3" t="s">
+        <v>11791</v>
+      </c>
+      <c r="F3">
+        <v>11079</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
       <c r="E4">
-        <v>13211</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
+        <v>8209</v>
+      </c>
+      <c r="F4">
+        <v>7226</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1383</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
+        <v>37593</v>
+      </c>
+      <c r="F5">
+        <v>28307</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>41706</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>12643</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>13199</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
+        <v>27208</v>
+      </c>
+      <c r="F7">
+        <v>22822</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>33366</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8">
-        <v>7683</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>41700</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9">
-        <v>9506</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>41705</v>
+      </c>
+      <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>13165</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
       </c>
       <c r="E11">
-        <v>13168</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
+        <v>3456</v>
+      </c>
+      <c r="F11">
+        <v>2456</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12">
+        <v>39334</v>
+      </c>
+      <c r="F12" t="s">
         <v>40</v>
       </c>
-      <c r="E12">
-        <v>3308</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>39335</v>
+      </c>
+      <c r="F13" t="s">
         <v>43</v>
       </c>
-      <c r="E13">
-        <v>12642</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
       </c>
       <c r="E14">
-        <v>2453</v>
-      </c>
-      <c r="F14" t="s">
+        <v>17102</v>
+      </c>
+      <c r="F14">
+        <v>14320</v>
+      </c>
+      <c r="G14" t="s">
         <v>46</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
       </c>
       <c r="E15">
-        <v>3222</v>
+        <v>41712</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16">
-        <v>12794</v>
+        <v>41699</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E17">
-        <v>10315</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
+        <v>38328</v>
+      </c>
+      <c r="F17">
+        <v>28752</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E18">
-        <v>13207</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
+        <v>36257</v>
+      </c>
+      <c r="F18">
+        <v>27591</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E19">
-        <v>10537</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
+        <v>39567</v>
+      </c>
+      <c r="F19">
+        <v>29445</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E20">
-        <v>7406</v>
-      </c>
-      <c r="F20" t="s">
-        <v>59</v>
+        <v>41311</v>
+      </c>
+      <c r="F20">
+        <v>30341</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E21">
-        <v>13090</v>
+        <v>33187</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22">
-        <v>12691</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
+        <v>37722</v>
+      </c>
+      <c r="F22">
+        <v>28379</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E23">
-        <v>13152</v>
-      </c>
-      <c r="F23" t="s">
-        <v>22</v>
+        <v>39154</v>
+      </c>
+      <c r="F23">
+        <v>29204</v>
       </c>
       <c r="G23" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2014,137 +2083,137 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E24">
-        <v>8217</v>
-      </c>
-      <c r="F24" t="s">
-        <v>69</v>
+        <v>41732</v>
+      </c>
+      <c r="F24">
+        <v>30535</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25">
-        <v>13191</v>
+        <v>39563</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26">
-        <v>10203</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
+        <v>4897</v>
+      </c>
+      <c r="F26">
+        <v>3898</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E27">
-        <v>13185</v>
-      </c>
-      <c r="F27" t="s">
-        <v>77</v>
+        <v>5983</v>
+      </c>
+      <c r="F27">
+        <v>4984</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
         <v>79</v>
       </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>64</v>
-      </c>
       <c r="E28">
-        <v>13212</v>
-      </c>
-      <c r="F28" t="s">
-        <v>80</v>
+        <v>39042</v>
+      </c>
+      <c r="F28">
+        <v>29142</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
         <v>81</v>
       </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>58</v>
-      </c>
       <c r="E29">
-        <v>10659</v>
+        <v>39608</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2152,45 +2221,45 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E30">
-        <v>3397</v>
-      </c>
-      <c r="F30" t="s">
+        <v>8399</v>
+      </c>
+      <c r="F30">
+        <v>7416</v>
+      </c>
+      <c r="G30" t="s">
         <v>84</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
         <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
         <v>86</v>
       </c>
       <c r="E31">
-        <v>9762</v>
+        <v>41711</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2198,114 +2267,114 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E32">
-        <v>3093</v>
-      </c>
-      <c r="F32" t="s">
-        <v>89</v>
+        <v>39747</v>
+      </c>
+      <c r="F32">
+        <v>29536</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E33">
-        <v>13188</v>
-      </c>
-      <c r="F33" t="s">
-        <v>91</v>
+        <v>9632</v>
+      </c>
+      <c r="F33">
+        <v>9344</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
         <v>93</v>
       </c>
       <c r="E34">
-        <v>12649</v>
-      </c>
-      <c r="F34" t="s">
-        <v>22</v>
+        <v>31996</v>
+      </c>
+      <c r="F34">
+        <v>28673</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
         <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
         <v>95</v>
       </c>
       <c r="E35">
-        <v>12364</v>
-      </c>
-      <c r="F35" t="s">
-        <v>22</v>
+        <v>17705</v>
+      </c>
+      <c r="F35">
+        <v>17381</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
         <v>97</v>
       </c>
       <c r="E36">
-        <v>10377</v>
-      </c>
-      <c r="F36" t="s">
-        <v>22</v>
+        <v>6999</v>
+      </c>
+      <c r="F36">
+        <v>6005</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2322,126 +2391,128 @@
         <v>99</v>
       </c>
       <c r="E37">
-        <v>9500</v>
-      </c>
-      <c r="F37"/>
+        <v>38150</v>
+      </c>
+      <c r="F37">
+        <v>28655</v>
+      </c>
       <c r="G37" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="E38">
-        <v>6359</v>
-      </c>
-      <c r="F38" t="s">
-        <v>102</v>
+        <v>13453</v>
+      </c>
+      <c r="F38">
+        <v>12091</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39">
+        <v>41737</v>
+      </c>
+      <c r="F39" t="s">
         <v>103</v>
       </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39">
-        <v>12798</v>
-      </c>
-      <c r="F39" t="s">
-        <v>22</v>
-      </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
         <v>105</v>
       </c>
-      <c r="C40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40">
+        <v>26111</v>
+      </c>
+      <c r="F40" t="s">
         <v>106</v>
       </c>
-      <c r="E40">
-        <v>13189</v>
-      </c>
-      <c r="F40" t="s">
-        <v>107</v>
-      </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
         <v>108</v>
       </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>109</v>
-      </c>
       <c r="E41">
-        <v>2161</v>
-      </c>
-      <c r="F41" t="s">
-        <v>22</v>
+        <v>30981</v>
+      </c>
+      <c r="F41">
+        <v>24654</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42">
+        <v>40411</v>
+      </c>
+      <c r="F42" t="s">
         <v>110</v>
       </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42">
-        <v>8924</v>
-      </c>
-      <c r="F42" t="s">
-        <v>22</v>
-      </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2449,25 +2520,27 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
         <v>112</v>
       </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43">
+        <v>40326</v>
+      </c>
+      <c r="F43" t="s">
         <v>113</v>
       </c>
-      <c r="E43">
-        <v>9796</v>
-      </c>
-      <c r="F43"/>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
         <v>114</v>
@@ -2479,41 +2552,41 @@
         <v>115</v>
       </c>
       <c r="E44">
-        <v>9166</v>
-      </c>
-      <c r="F44" t="s">
-        <v>22</v>
+        <v>41725</v>
+      </c>
+      <c r="F44">
+        <v>30534</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
         <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
         <v>117</v>
       </c>
       <c r="E45">
-        <v>13193</v>
+        <v>40808</v>
       </c>
       <c r="F45" t="s">
         <v>118</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
         <v>119</v>
@@ -2525,13 +2598,13 @@
         <v>120</v>
       </c>
       <c r="E46">
-        <v>10317</v>
-      </c>
-      <c r="F46" t="s">
-        <v>22</v>
+        <v>6519</v>
+      </c>
+      <c r="F46">
+        <v>5520</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2542,42 +2615,42 @@
         <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
         <v>122</v>
       </c>
       <c r="E47">
-        <v>13173</v>
-      </c>
-      <c r="F47" t="s">
-        <v>123</v>
+        <v>11085</v>
+      </c>
+      <c r="F47">
+        <v>10490</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
         <v>124</v>
       </c>
-      <c r="C48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48">
+        <v>9996</v>
+      </c>
+      <c r="F48" t="s">
         <v>125</v>
       </c>
-      <c r="E48">
-        <v>12671</v>
-      </c>
-      <c r="F48" t="s">
-        <v>22</v>
-      </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2588,247 +2661,249 @@
         <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="E49">
-        <v>13176</v>
-      </c>
-      <c r="F49" t="s">
-        <v>127</v>
+        <v>36609</v>
+      </c>
+      <c r="F49">
+        <v>27794</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
         <v>128</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
         <v>129</v>
       </c>
       <c r="E50">
-        <v>9501</v>
+        <v>40617</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="G50" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
         <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
         <v>132</v>
       </c>
       <c r="E51">
-        <v>2038</v>
-      </c>
-      <c r="F51"/>
+        <v>39710</v>
+      </c>
+      <c r="F51">
+        <v>29517</v>
+      </c>
       <c r="G51" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E52">
-        <v>9501</v>
-      </c>
-      <c r="F52" t="s">
-        <v>22</v>
+        <v>31676</v>
+      </c>
+      <c r="F52">
+        <v>25046</v>
       </c>
       <c r="G52" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E53">
-        <v>6761</v>
+        <v>41698</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E54">
-        <v>10087</v>
+        <v>34784</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E55">
-        <v>13183</v>
-      </c>
-      <c r="F55" t="s">
-        <v>139</v>
+        <v>20021</v>
+      </c>
+      <c r="F55">
+        <v>30149</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="E56">
-        <v>2848</v>
+        <v>41701</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E57">
-        <v>12004</v>
-      </c>
-      <c r="F57" t="s">
-        <v>22</v>
+        <v>1652</v>
+      </c>
+      <c r="F57">
+        <v>652</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E58">
-        <v>13210</v>
-      </c>
-      <c r="F58" t="s">
-        <v>146</v>
+        <v>4091</v>
+      </c>
+      <c r="F58">
+        <v>3091</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E59">
-        <v>12496</v>
-      </c>
-      <c r="F59" t="s">
-        <v>22</v>
+        <v>35086</v>
+      </c>
+      <c r="F59">
+        <v>26895</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2836,45 +2911,45 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E60">
-        <v>4805</v>
+        <v>41721</v>
       </c>
       <c r="F60" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="E61">
-        <v>3339</v>
-      </c>
-      <c r="F61" t="s">
-        <v>22</v>
+        <v>41265</v>
+      </c>
+      <c r="F61">
+        <v>30308</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2882,68 +2957,68 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="E62">
-        <v>13174</v>
-      </c>
-      <c r="F62" t="s">
-        <v>154</v>
+        <v>38168</v>
+      </c>
+      <c r="F62">
+        <v>29544</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E63">
-        <v>10017</v>
-      </c>
-      <c r="F63" t="s">
-        <v>22</v>
+        <v>7737</v>
+      </c>
+      <c r="F63">
+        <v>6753</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E64">
-        <v>13209</v>
+        <v>41739</v>
       </c>
       <c r="F64" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2951,68 +3026,68 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="E65">
-        <v>3869</v>
-      </c>
-      <c r="F65" t="s">
-        <v>160</v>
+        <v>41277</v>
+      </c>
+      <c r="F65">
+        <v>30317</v>
       </c>
       <c r="G65" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E66">
-        <v>13177</v>
-      </c>
-      <c r="F66" t="s">
-        <v>163</v>
+        <v>29096</v>
+      </c>
+      <c r="F66">
+        <v>25723</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="E67">
-        <v>13164</v>
+        <v>41714</v>
       </c>
       <c r="F67" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3020,22 +3095,22 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E68">
-        <v>2317</v>
-      </c>
-      <c r="F68" t="s">
-        <v>168</v>
+        <v>35411</v>
+      </c>
+      <c r="F68">
+        <v>27127</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3043,89 +3118,91 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E69">
-        <v>1148</v>
-      </c>
-      <c r="F69" t="s">
-        <v>170</v>
+        <v>41009</v>
+      </c>
+      <c r="F69">
+        <v>30193</v>
       </c>
       <c r="G69" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
         <v>172</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
         <v>173</v>
       </c>
       <c r="E70">
-        <v>13141</v>
-      </c>
-      <c r="F70"/>
+        <v>41159</v>
+      </c>
+      <c r="F70" t="s">
+        <v>174</v>
+      </c>
       <c r="G70" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
         <v>175</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
         <v>176</v>
       </c>
       <c r="E71">
-        <v>11406</v>
-      </c>
-      <c r="F71" t="s">
-        <v>22</v>
+        <v>32741</v>
+      </c>
+      <c r="F71">
+        <v>30043</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
         <v>177</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="E72">
-        <v>11849</v>
-      </c>
-      <c r="F72" t="s">
-        <v>22</v>
+        <v>27014</v>
+      </c>
+      <c r="F72">
+        <v>22796</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3133,22 +3210,22 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E73">
-        <v>13179</v>
-      </c>
-      <c r="F73" t="s">
-        <v>180</v>
+        <v>41719</v>
+      </c>
+      <c r="F73">
+        <v>30531</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3159,114 +3236,116 @@
         <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E74">
-        <v>3568</v>
-      </c>
-      <c r="F74" t="s">
-        <v>59</v>
+        <v>31038</v>
+      </c>
+      <c r="F74">
+        <v>24693</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
         <v>182</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
         <v>183</v>
       </c>
       <c r="E75">
-        <v>6839</v>
-      </c>
-      <c r="F75" t="s">
-        <v>69</v>
+        <v>41316</v>
+      </c>
+      <c r="F75">
+        <v>30342</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
         <v>184</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
         <v>185</v>
       </c>
       <c r="E76">
-        <v>12011</v>
-      </c>
-      <c r="F76" t="s">
-        <v>22</v>
+        <v>35151</v>
+      </c>
+      <c r="F76">
+        <v>26928</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
         <v>186</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="E77">
-        <v>5696</v>
+        <v>39264</v>
       </c>
       <c r="F77" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="E78">
-        <v>10747</v>
-      </c>
-      <c r="F78"/>
+        <v>40186</v>
+      </c>
+      <c r="F78">
+        <v>29781</v>
+      </c>
       <c r="G78" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
         <v>190</v>
@@ -3278,105 +3357,105 @@
         <v>191</v>
       </c>
       <c r="E79">
-        <v>4575</v>
-      </c>
-      <c r="F79" t="s">
-        <v>192</v>
+        <v>25062</v>
+      </c>
+      <c r="F79">
+        <v>21973</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E80">
-        <v>12022</v>
-      </c>
-      <c r="F80" t="s">
-        <v>22</v>
+        <v>1755</v>
+      </c>
+      <c r="F80">
+        <v>755</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
         <v>194</v>
       </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" t="s">
-        <v>195</v>
-      </c>
       <c r="E81">
-        <v>12943</v>
-      </c>
-      <c r="F81" t="s">
-        <v>22</v>
+        <v>5838</v>
+      </c>
+      <c r="F81">
+        <v>4839</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
         <v>196</v>
       </c>
-      <c r="C82" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" t="s">
-        <v>104</v>
-      </c>
       <c r="E82">
-        <v>13206</v>
-      </c>
-      <c r="F82" t="s">
-        <v>197</v>
+        <v>34283</v>
+      </c>
+      <c r="F82">
+        <v>26395</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="E83">
-        <v>11208</v>
-      </c>
-      <c r="F83" t="s">
-        <v>22</v>
+        <v>38719</v>
+      </c>
+      <c r="F83">
+        <v>28965</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3384,45 +3463,45 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84">
+        <v>41720</v>
+      </c>
+      <c r="F84" t="s">
         <v>200</v>
       </c>
-      <c r="C84" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" t="s">
-        <v>201</v>
-      </c>
-      <c r="E84">
-        <v>8229</v>
-      </c>
-      <c r="F84" t="s">
-        <v>69</v>
-      </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
         <v>202</v>
       </c>
-      <c r="C85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" t="s">
-        <v>203</v>
-      </c>
       <c r="E85">
-        <v>12337</v>
-      </c>
-      <c r="F85" t="s">
-        <v>22</v>
+        <v>40791</v>
+      </c>
+      <c r="F85">
+        <v>30074</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3430,22 +3509,22 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
         <v>204</v>
       </c>
-      <c r="C86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" t="s">
-        <v>132</v>
-      </c>
       <c r="E86">
-        <v>5503</v>
-      </c>
-      <c r="F86" t="s">
-        <v>69</v>
+        <v>36145</v>
+      </c>
+      <c r="F86">
+        <v>30184</v>
       </c>
       <c r="G86" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3456,42 +3535,42 @@
         <v>205</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="E87">
-        <v>12266</v>
+        <v>40654</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="E88">
-        <v>12365</v>
-      </c>
-      <c r="F88" t="s">
-        <v>22</v>
+        <v>41408</v>
+      </c>
+      <c r="F88">
+        <v>30380</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3499,114 +3578,114 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E89">
-        <v>12850</v>
-      </c>
-      <c r="F89" t="s">
-        <v>22</v>
+        <v>18439</v>
+      </c>
+      <c r="F89">
+        <v>17917</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E90">
-        <v>10651</v>
+        <v>41007</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="E91">
-        <v>9210</v>
-      </c>
-      <c r="F91" t="s">
-        <v>22</v>
+        <v>30079</v>
+      </c>
+      <c r="F91">
+        <v>28430</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="E92">
-        <v>9288</v>
+        <v>41738</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C93" t="s">
         <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="E93">
-        <v>10216</v>
-      </c>
-      <c r="F93" t="s">
-        <v>22</v>
+        <v>41096</v>
+      </c>
+      <c r="F93">
+        <v>30232</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3614,91 +3693,91 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E94">
-        <v>1338</v>
+        <v>40805</v>
       </c>
       <c r="F94" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E95">
-        <v>4176</v>
-      </c>
-      <c r="F95" t="s">
-        <v>22</v>
+        <v>41487</v>
+      </c>
+      <c r="F95">
+        <v>30427</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="E96">
-        <v>11505</v>
-      </c>
-      <c r="F96" t="s">
-        <v>22</v>
+        <v>39529</v>
+      </c>
+      <c r="F96">
+        <v>29421</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="E97">
-        <v>13194</v>
-      </c>
-      <c r="F97" t="s">
-        <v>222</v>
+        <v>38633</v>
+      </c>
+      <c r="F97">
+        <v>28915</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3706,457 +3785,459 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="E98">
-        <v>13171</v>
-      </c>
-      <c r="F98" t="s">
-        <v>224</v>
+        <v>31897</v>
+      </c>
+      <c r="F98">
+        <v>2090</v>
       </c>
       <c r="G98" t="s">
-        <v>225</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="E99">
-        <v>12409</v>
+        <v>41710</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C100" t="s">
         <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="E100">
-        <v>7054</v>
+        <v>11896</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="E101">
-        <v>10178</v>
-      </c>
-      <c r="F101" t="s">
-        <v>22</v>
+        <v>41464</v>
+      </c>
+      <c r="F101">
+        <v>30414</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E102">
-        <v>11857</v>
-      </c>
-      <c r="F102" t="s">
-        <v>22</v>
+        <v>13765</v>
+      </c>
+      <c r="F102">
+        <v>13142</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>138</v>
+        <v>242</v>
       </c>
       <c r="E103">
-        <v>5073</v>
+        <v>41722</v>
       </c>
       <c r="F103" t="s">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="E104">
-        <v>6358</v>
-      </c>
-      <c r="F104" t="s">
-        <v>233</v>
+        <v>41724</v>
+      </c>
+      <c r="F104">
+        <v>30532</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="E105">
-        <v>11094</v>
-      </c>
-      <c r="F105" t="s">
-        <v>22</v>
+        <v>41269</v>
+      </c>
+      <c r="F105">
+        <v>30311</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B106" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C106" t="s">
         <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="E106">
-        <v>12712</v>
+        <v>10545</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
+        <v>249</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C107" t="s">
         <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="E107">
-        <v>12712</v>
-      </c>
-      <c r="F107" t="s">
-        <v>22</v>
+        <v>34293</v>
+      </c>
+      <c r="F107">
+        <v>26401</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C108" t="s">
         <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="E108">
-        <v>13202</v>
+        <v>39990</v>
       </c>
       <c r="F108" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="E109">
-        <v>13195</v>
-      </c>
-      <c r="F109" t="s">
-        <v>241</v>
+        <v>34164</v>
+      </c>
+      <c r="F109">
+        <v>26303</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="E110">
-        <v>13198</v>
-      </c>
-      <c r="F110" t="s">
-        <v>244</v>
+        <v>41718</v>
+      </c>
+      <c r="F110">
+        <v>30530</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="E111">
-        <v>2879</v>
+        <v>32105</v>
       </c>
       <c r="F111" t="s">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="G111" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="E112">
-        <v>4784</v>
-      </c>
-      <c r="F112" t="s">
-        <v>248</v>
+        <v>23671</v>
+      </c>
+      <c r="F112">
+        <v>21112</v>
       </c>
       <c r="G112" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="E113">
-        <v>3146</v>
-      </c>
-      <c r="F113" t="s">
-        <v>59</v>
+        <v>40474</v>
+      </c>
+      <c r="F113">
+        <v>29912</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C114" t="s">
         <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="E114">
-        <v>10540</v>
-      </c>
-      <c r="F114"/>
+        <v>21544</v>
+      </c>
+      <c r="F114" t="s">
+        <v>264</v>
+      </c>
       <c r="G114" t="s">
-        <v>251</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E115">
-        <v>12904</v>
+        <v>41713</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B116" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C116" t="s">
         <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="E116">
-        <v>13172</v>
+        <v>41702</v>
       </c>
       <c r="F116" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="G116" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>257</v>
+        <v>89</v>
       </c>
       <c r="E117">
-        <v>13011</v>
-      </c>
-      <c r="F117" t="s">
-        <v>22</v>
+        <v>28299</v>
+      </c>
+      <c r="F117">
+        <v>23375</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4164,457 +4245,459 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="E118">
-        <v>2790</v>
+        <v>40279</v>
       </c>
       <c r="F118" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B119" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>261</v>
+        <v>89</v>
       </c>
       <c r="E119">
-        <v>1804</v>
-      </c>
-      <c r="F119" t="s">
-        <v>262</v>
+        <v>32254</v>
+      </c>
+      <c r="F119">
+        <v>25343</v>
       </c>
       <c r="G119" t="s">
-        <v>263</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C120" t="s">
         <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="E120">
-        <v>7053</v>
-      </c>
-      <c r="F120" t="s">
-        <v>59</v>
+        <v>15920</v>
+      </c>
+      <c r="F120">
+        <v>13568</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="E121">
-        <v>13203</v>
-      </c>
-      <c r="F121" t="s">
-        <v>267</v>
+        <v>15035</v>
+      </c>
+      <c r="F121">
+        <v>12985</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E122">
-        <v>5454</v>
-      </c>
-      <c r="F122" t="s">
-        <v>270</v>
+        <v>8114</v>
+      </c>
+      <c r="F122">
+        <v>7131</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="E123">
-        <v>13190</v>
-      </c>
-      <c r="F123" t="s">
-        <v>272</v>
+        <v>33199</v>
+      </c>
+      <c r="F123">
+        <v>25792</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="E124">
-        <v>12713</v>
+        <v>41723</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
+        <v>283</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="E125">
-        <v>6736</v>
+        <v>41709</v>
       </c>
       <c r="F125" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E126">
-        <v>5191</v>
-      </c>
-      <c r="F126"/>
+        <v>40488</v>
+      </c>
+      <c r="F126" t="s">
+        <v>289</v>
+      </c>
       <c r="G126" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>162</v>
+        <v>291</v>
       </c>
       <c r="E127">
-        <v>5301</v>
-      </c>
-      <c r="F127" t="s">
-        <v>282</v>
+        <v>41594</v>
+      </c>
+      <c r="F127">
+        <v>30465</v>
       </c>
       <c r="G127" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B128" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C128" t="s">
         <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="E128">
-        <v>12946</v>
+        <v>26179</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="G128" t="s">
-        <v>285</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E129">
-        <v>13201</v>
-      </c>
-      <c r="F129" t="s">
-        <v>288</v>
+        <v>36422</v>
+      </c>
+      <c r="F129">
+        <v>27694</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E130">
-        <v>11154</v>
+        <v>34763</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
+        <v>298</v>
       </c>
       <c r="G130" t="s">
-        <v>291</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E131">
-        <v>3426</v>
+        <v>26856</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="G131" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C132" t="s">
         <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>145</v>
+        <v>302</v>
       </c>
       <c r="E132">
-        <v>10370</v>
-      </c>
-      <c r="F132" t="s">
-        <v>22</v>
+        <v>35139</v>
+      </c>
+      <c r="F132">
+        <v>26931</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B133" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>295</v>
+        <v>191</v>
       </c>
       <c r="E133">
-        <v>10176</v>
-      </c>
-      <c r="F133" t="s">
-        <v>22</v>
+        <v>5919</v>
+      </c>
+      <c r="F133">
+        <v>4920</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B134" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C134" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>199</v>
+        <v>305</v>
       </c>
       <c r="E134">
-        <v>13184</v>
-      </c>
-      <c r="F134" t="s">
-        <v>297</v>
+        <v>34490</v>
+      </c>
+      <c r="F134">
+        <v>26529</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E135">
-        <v>13205</v>
-      </c>
-      <c r="F135" t="s">
-        <v>300</v>
+        <v>39235</v>
+      </c>
+      <c r="F135">
+        <v>29252</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B136" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C136" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>71</v>
+        <v>309</v>
       </c>
       <c r="E136">
-        <v>9279</v>
-      </c>
-      <c r="F136" t="s">
-        <v>22</v>
+        <v>9322</v>
+      </c>
+      <c r="F136">
+        <v>8497</v>
       </c>
       <c r="G136" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B137" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="E137">
-        <v>12445</v>
-      </c>
-      <c r="F137" t="s">
-        <v>22</v>
+        <v>10506</v>
+      </c>
+      <c r="F137">
+        <v>1127</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4622,22 +4705,22 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="E138">
-        <v>2943</v>
+        <v>37987</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="G138" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4645,206 +4728,206 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>305</v>
+        <v>194</v>
       </c>
       <c r="E139">
-        <v>1725</v>
+        <v>41482</v>
       </c>
       <c r="F139" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="G139" t="s">
-        <v>307</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B140" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>64</v>
+        <v>312</v>
       </c>
       <c r="E140">
-        <v>11945</v>
-      </c>
-      <c r="F140" t="s">
-        <v>22</v>
+        <v>15853</v>
+      </c>
+      <c r="F140">
+        <v>13531</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E141">
-        <v>11945</v>
-      </c>
-      <c r="F141" t="s">
-        <v>22</v>
+        <v>41731</v>
+      </c>
+      <c r="F141">
+        <v>30534</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C142" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="E142">
-        <v>3884</v>
-      </c>
-      <c r="F142" t="s">
-        <v>310</v>
+        <v>15813</v>
+      </c>
+      <c r="F142">
+        <v>13503</v>
       </c>
       <c r="G142" t="s">
-        <v>311</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>313</v>
+        <v>231</v>
       </c>
       <c r="E143">
-        <v>12771</v>
+        <v>38218</v>
       </c>
       <c r="F143" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="G143" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B144" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C144" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>125</v>
+        <v>322</v>
       </c>
       <c r="E144">
-        <v>10890</v>
-      </c>
-      <c r="F144" t="s">
-        <v>22</v>
+        <v>4098</v>
+      </c>
+      <c r="F144">
+        <v>3098</v>
       </c>
       <c r="G144" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E145">
-        <v>13204</v>
-      </c>
-      <c r="F145" t="s">
-        <v>317</v>
+        <v>41708</v>
+      </c>
+      <c r="F145">
+        <v>30526</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B146" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>319</v>
+        <v>147</v>
       </c>
       <c r="E146">
-        <v>1746</v>
+        <v>36953</v>
       </c>
       <c r="F146" t="s">
-        <v>22</v>
+        <v>326</v>
       </c>
       <c r="G146" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B147" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="E147">
-        <v>1746</v>
+        <v>41715</v>
       </c>
       <c r="F147" t="s">
-        <v>22</v>
+        <v>329</v>
       </c>
       <c r="G147" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4852,45 +4935,45 @@
         <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="E148">
-        <v>13175</v>
+        <v>36775</v>
       </c>
       <c r="F148" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B149" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="C149" t="s">
         <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="E149">
-        <v>12623</v>
-      </c>
-      <c r="F149" t="s">
-        <v>22</v>
+        <v>25754</v>
+      </c>
+      <c r="F149">
+        <v>22260</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4898,160 +4981,160 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>93</v>
+        <v>335</v>
       </c>
       <c r="E150">
-        <v>1913</v>
+        <v>31755</v>
       </c>
       <c r="F150" t="s">
-        <v>69</v>
+        <v>336</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B151" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="E151">
-        <v>11875</v>
+        <v>41704</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
+        <v>339</v>
       </c>
       <c r="G151" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="E152">
-        <v>3700</v>
-      </c>
-      <c r="F152" t="s">
-        <v>327</v>
+        <v>2596</v>
+      </c>
+      <c r="F152">
+        <v>1596</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B153" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>52</v>
+        <v>240</v>
       </c>
       <c r="E153">
-        <v>3464</v>
-      </c>
-      <c r="F153" t="s">
-        <v>22</v>
+        <v>5688</v>
+      </c>
+      <c r="F153">
+        <v>4689</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="C154" t="s">
         <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>330</v>
+        <v>54</v>
       </c>
       <c r="E154">
-        <v>12938</v>
-      </c>
-      <c r="F154" t="s">
-        <v>22</v>
+        <v>39962</v>
+      </c>
+      <c r="F154">
+        <v>29681</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B155" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E155">
-        <v>13180</v>
+        <v>40530</v>
       </c>
       <c r="F155" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B156" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E156">
-        <v>10141</v>
+        <v>36144</v>
       </c>
       <c r="F156" t="s">
-        <v>22</v>
+        <v>347</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>348</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5059,298 +5142,298 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="E157">
-        <v>13169</v>
-      </c>
-      <c r="F157" t="s">
-        <v>335</v>
+        <v>27218</v>
+      </c>
+      <c r="F157">
+        <v>22826</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B158" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E158">
-        <v>13197</v>
-      </c>
-      <c r="F158" t="s">
-        <v>337</v>
+        <v>36829</v>
+      </c>
+      <c r="F158">
+        <v>27927</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B159" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>339</v>
+        <v>95</v>
       </c>
       <c r="E159">
-        <v>4226</v>
+        <v>29957</v>
       </c>
       <c r="F159" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="G159" t="s">
-        <v>174</v>
+        <v>354</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B160" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="E160">
-        <v>13163</v>
+        <v>34887</v>
       </c>
       <c r="F160" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C161" t="s">
         <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="E161">
-        <v>5320</v>
-      </c>
-      <c r="F161" t="s">
-        <v>346</v>
+        <v>11527</v>
+      </c>
+      <c r="F161">
+        <v>10859</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B162" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C162" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="E162">
-        <v>2593</v>
-      </c>
-      <c r="F162" t="s">
-        <v>348</v>
+        <v>35382</v>
+      </c>
+      <c r="F162">
+        <v>27101</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B163" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C163" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D163" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E163">
-        <v>1564</v>
-      </c>
-      <c r="F163" t="s">
-        <v>350</v>
+        <v>21856</v>
+      </c>
+      <c r="F163">
+        <v>20099</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B164" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="C164" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D164" t="s">
-        <v>120</v>
+        <v>363</v>
       </c>
       <c r="E164">
-        <v>1564</v>
+        <v>40748</v>
       </c>
       <c r="F164" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B165" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="C165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D165" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E165">
-        <v>12441</v>
-      </c>
-      <c r="F165" t="s">
-        <v>22</v>
+        <v>6340</v>
+      </c>
+      <c r="F165">
+        <v>5341</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B166" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C166" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>299</v>
+        <v>108</v>
       </c>
       <c r="E166">
-        <v>1005</v>
-      </c>
-      <c r="F166" t="s">
-        <v>353</v>
+        <v>29840</v>
+      </c>
+      <c r="F166">
+        <v>24203</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C167" t="s">
         <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>326</v>
+        <v>11</v>
       </c>
       <c r="E167">
-        <v>1535</v>
+        <v>9960</v>
       </c>
       <c r="F167" t="s">
-        <v>22</v>
+        <v>368</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B168" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C168" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D168" t="s">
-        <v>97</v>
+        <v>370</v>
       </c>
       <c r="E168">
-        <v>1485</v>
-      </c>
-      <c r="F168" t="s">
-        <v>356</v>
+        <v>38103</v>
+      </c>
+      <c r="F168">
+        <v>28620</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="C169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D169" t="s">
-        <v>358</v>
+        <v>93</v>
       </c>
       <c r="E169">
-        <v>10516</v>
-      </c>
-      <c r="F169" t="s">
-        <v>22</v>
+        <v>38319</v>
+      </c>
+      <c r="F169">
+        <v>28745</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5358,43 +5441,45 @@
         <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D170" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="E170">
-        <v>9509</v>
-      </c>
-      <c r="F170" t="s">
-        <v>22</v>
+        <v>26831</v>
+      </c>
+      <c r="F170">
+        <v>22757</v>
       </c>
       <c r="G170" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B171" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C171" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>95</v>
+        <v>374</v>
       </c>
       <c r="E171">
-        <v>13162</v>
-      </c>
-      <c r="F171"/>
+        <v>9624</v>
+      </c>
+      <c r="F171" t="s">
+        <v>375</v>
+      </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5402,22 +5487,22 @@
         <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="C172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D172" t="s">
-        <v>290</v>
+        <v>122</v>
       </c>
       <c r="E172">
-        <v>2167</v>
-      </c>
-      <c r="F172" t="s">
-        <v>69</v>
+        <v>11838</v>
+      </c>
+      <c r="F172">
+        <v>11116</v>
       </c>
       <c r="G172" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5425,89 +5510,91 @@
         <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D173" t="s">
-        <v>326</v>
+        <v>112</v>
       </c>
       <c r="E173">
-        <v>2223</v>
-      </c>
-      <c r="F173" t="s">
-        <v>363</v>
+        <v>10487</v>
+      </c>
+      <c r="F173">
+        <v>9951</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B174" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C174" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D174" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="E174">
-        <v>12354</v>
-      </c>
-      <c r="F174"/>
+        <v>41703</v>
+      </c>
+      <c r="F174" t="s">
+        <v>380</v>
+      </c>
       <c r="G174" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B175" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="C175" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="E175">
-        <v>3771</v>
+        <v>30215</v>
       </c>
       <c r="F175" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="G175" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B176" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D176" t="s">
-        <v>120</v>
+        <v>385</v>
       </c>
       <c r="E176">
-        <v>2552</v>
-      </c>
-      <c r="F176" t="s">
-        <v>22</v>
+        <v>41278</v>
+      </c>
+      <c r="F176">
+        <v>30318</v>
       </c>
       <c r="G176" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5515,114 +5602,229 @@
         <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D177" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E177">
-        <v>13170</v>
-      </c>
-      <c r="F177" t="s">
-        <v>372</v>
+        <v>41278</v>
+      </c>
+      <c r="F177">
+        <v>30318</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C178" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>138</v>
+        <v>335</v>
       </c>
       <c r="E178">
-        <v>10181</v>
+        <v>32148</v>
       </c>
       <c r="F178" t="s">
-        <v>22</v>
+        <v>387</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="C179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D179" t="s">
-        <v>299</v>
+        <v>112</v>
       </c>
       <c r="E179">
-        <v>6138</v>
-      </c>
-      <c r="F179" t="s">
-        <v>22</v>
+        <v>10576</v>
+      </c>
+      <c r="F179">
+        <v>1361</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="C180" t="s">
         <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="E180">
-        <v>3905</v>
+        <v>34189</v>
       </c>
       <c r="F180" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="G180" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B181" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="C181" t="s">
         <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="E181">
-        <v>13181</v>
-      </c>
-      <c r="F181" t="s">
-        <v>378</v>
+        <v>41479</v>
+      </c>
+      <c r="F181">
+        <v>30420</v>
       </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" t="s">
+        <v>392</v>
+      </c>
+      <c r="C182" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" t="s">
+        <v>393</v>
+      </c>
+      <c r="E182">
+        <v>41707</v>
+      </c>
+      <c r="F182" t="s">
+        <v>394</v>
+      </c>
+      <c r="G182" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" t="s">
+        <v>395</v>
+      </c>
+      <c r="C183" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" t="s">
+        <v>396</v>
+      </c>
+      <c r="E183">
+        <v>11135</v>
+      </c>
+      <c r="F183">
+        <v>10549</v>
+      </c>
+      <c r="G183" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" t="s">
+        <v>397</v>
+      </c>
+      <c r="C184" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" t="s">
+        <v>89</v>
+      </c>
+      <c r="E184">
+        <v>40894</v>
+      </c>
+      <c r="F184" t="s">
+        <v>398</v>
+      </c>
+      <c r="G184" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" t="s">
+        <v>399</v>
+      </c>
+      <c r="C185" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" t="s">
+        <v>93</v>
+      </c>
+      <c r="E185">
+        <v>37978</v>
+      </c>
+      <c r="F185">
+        <v>28536</v>
+      </c>
+      <c r="G185" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" t="s">
+        <v>400</v>
+      </c>
+      <c r="C186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" t="s">
+        <v>225</v>
+      </c>
+      <c r="E186">
+        <v>41733</v>
+      </c>
+      <c r="F186" t="s">
+        <v>401</v>
+      </c>
+      <c r="G186" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
